--- a/docs/Lasagne/pricing_grid.xlsx
+++ b/docs/Lasagne/pricing_grid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\git\stage\smartgrids\energy2\docs\Lasagne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290E2440-31B4-4AF1-A49D-27CC1229AF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E4D82D-DA2C-4439-9FEC-82095354E8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-5265" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,6 +120,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rates </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -425,8 +450,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Time</a:t>
+                  <a:rPr lang="fr-FR" b="1"/>
+                  <a:t>Time (in minutes)</a:t>
                 </a:r>
               </a:p>
               <a:p>
@@ -551,9 +576,36 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>rate</a:t>
+                  <a:rPr lang="fr-FR" b="1"/>
+                  <a:t>rate </a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>($ per </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>kWh </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3580,8 +3632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A61"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4028,7 +4080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C40981-4B92-4D45-884D-64D93A177441}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
